--- a/Competitive Programming - Tracker.xlsx
+++ b/Competitive Programming - Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Competitive Prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C082B98-95D5-4D10-ACC0-3CBD183D4390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F36FA3-E4CA-42F0-848C-DD5532DCB5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="336" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Codeforces Contests" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>1.Educational Codeforces Round 135 (Rated for Div. 2)</t>
   </si>
@@ -359,13 +359,59 @@
   <si>
     <t xml:space="preserve">B. Codeforces Subsequences  (Constructive Algorithm)
 C. Even Picture (Easy) (Difficult to analyze the pattern) </t>
+  </si>
+  <si>
+    <t>B. Meeting on the Line (Binary Search) (Ternery Search)</t>
+  </si>
+  <si>
+    <t>13. Codeforces Round #831 (Div. 1 + Div. 2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Hanging Hearts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Codeforces Global Round 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print the longest palindromic prefix of a given string </t>
+  </si>
+  <si>
+    <t>D2. Prefix-Suffix Palindrome (Hard version)</t>
+  </si>
+  <si>
+    <t>14. Codeforces Round #832 (Div. 2)</t>
+  </si>
+  <si>
+    <t>15. CodeTON Round 3 (Div. 1 + Div. 2, Rated)</t>
+  </si>
+  <si>
+    <t>D. Yet Another Problem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -421,6 +467,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -439,21 +493,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{46786B4F-74A9-490A-A23F-6EBE606B567E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E1448F04-8BED-40B7-A693-B5B040ACDA9B}"/>
@@ -769,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C430EE40-C316-4C97-8613-FA9B31253B6E}">
-  <dimension ref="B3:C26"/>
+  <dimension ref="B3:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -884,6 +945,27 @@
         <v>45</v>
       </c>
     </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -892,10 +974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBB0D4A-853A-4031-8D6B-F18A76F0F8F4}">
-  <dimension ref="B2:C92"/>
+  <dimension ref="B2:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -903,6 +985,7 @@
     <col min="1" max="1" width="17.69921875" customWidth="1"/>
     <col min="2" max="2" width="43.8984375" customWidth="1"/>
     <col min="3" max="3" width="105.5" customWidth="1"/>
+    <col min="4" max="4" width="51.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -949,7 +1032,9 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
@@ -990,19 +1075,19 @@
       <c r="B75" t="s">
         <v>32</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>30</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>35</v>
       </c>
@@ -1010,9 +1095,23 @@
         <v>46</v>
       </c>
     </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D95" r:id="rId1" xr:uid="{5AEC60DC-955C-44B3-B3EA-618E5D739637}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
